--- a/biology/Botanique/Georges_Nétien/Georges_Nétien.xlsx
+++ b/biology/Botanique/Georges_Nétien/Georges_Nétien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Georges_N%C3%A9tien</t>
+          <t>Georges_Nétien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Georges Nétien, né le 23 octobre 1907 à Grigny et mort le 27 mai 1999 à Lyon[1], est un botaniste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Georges Nétien, né le 23 octobre 1907 à Grigny et mort le 27 mai 1999 à Lyon, est un botaniste français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Georges_N%C3%A9tien</t>
+          <t>Georges_Nétien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études et sa carrière à Lyon. Il obtient sa licence en sciences naturelles en 1930 puis son diplôme d’études supérieures en 1931 ainsi qu’un diplôme de pharmacie. Il soutient sa thèse en 1935 avec un sujet portant sur les glucides et les saponines des Caryophyllacées.
 Il est chef de travaux pratiques à la Faculté de médecine et de pharmacie en 1931, titulaire en 1933, chargé de cours en botanique en 1947, agrégé en 1949 enfin professeur titulaire de botanique et de cryptogamie en 1952 jusqu’à sa retraite en 1979.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Georges_N%C3%A9tien</t>
+          <t>Georges_Nétien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Paul Berthet (2000). In Memoriam : professeur Georges Nétien (1907-1999). Bulletin mensuel de la Société linnéenne de Lyon, 69 (4) : 60-64. L’auteur donne une liste de 85 publications consacrées à la floristique.</t>
         </is>
